--- a/medicine/Mort/Ancien_cimetière_de_Rosny-sous-Bois/Ancien_cimetière_de_Rosny-sous-Bois.xlsx
+++ b/medicine/Mort/Ancien_cimetière_de_Rosny-sous-Bois/Ancien_cimetière_de_Rosny-sous-Bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Rosny-sous-Bois</t>
+          <t>Ancien_cimetière_de_Rosny-sous-Bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancien cimetière de Rosny-sous-Bois, est un cimetière se trouvant boulevard Gabriel-Péri à Rosny-sous-Bois[1], situé au lieu dit « les Buttes »[2], entre la rue Conrad-Adenauer et la ligne de Paris-Est à Mulhouse-Ville. C'est l'un des deux cimetières de la ville avec le cimetière communal de Rosny-sous-Bois.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancien cimetière de Rosny-sous-Bois, est un cimetière se trouvant boulevard Gabriel-Péri à Rosny-sous-Bois, situé au lieu dit « les Buttes », entre la rue Conrad-Adenauer et la ligne de Paris-Est à Mulhouse-Ville. C'est l'un des deux cimetières de la ville avec le cimetière communal de Rosny-sous-Bois.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Rosny-sous-Bois</t>
+          <t>Ancien_cimetière_de_Rosny-sous-Bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la suite du décret Impérial sur les sépultures de 1804, qui ordonne que les cimetières soient déplacés hors des villes, le cimetière d'origine mérovingienne[3] qui se trouvait au nord-est de l'église Sainte-Geneviève est desaffecté en 1822.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite du décret Impérial sur les sépultures de 1804, qui ordonne que les cimetières soient déplacés hors des villes, le cimetière d'origine mérovingienne qui se trouvait au nord-est de l'église Sainte-Geneviève est desaffecté en 1822.
 Entretemps, la délibération du Conseil Municipal, au 15 avril 1810, évoque le projet d'un nouveau cimetière.
-Ce nouveau lieu de sépulture est alors créé sur un terrain, auparavant offert en 1818 ou 1820, par le baron Denis Germain de Nanteuil, maire de la commune[2].
+Ce nouveau lieu de sépulture est alors créé sur un terrain, auparavant offert en 1818 ou 1820, par le baron Denis Germain de Nanteuil, maire de la commune.
 Le cimetière a été plusieurs fois agrandi au moyen d'acquisitions successives de terrains limitrophes. Mesurant initialement 13 ares, il est passé en 1863 à 73 ares. En 1884, une nouvelle expropriation de 49 ares a permis de construire une maison destinée au gardien du cimetière.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ancien_cimeti%C3%A8re_de_Rosny-sous-Bois</t>
+          <t>Ancien_cimetière_de_Rosny-sous-Bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnalités enterrées dans le cimetière
-Émile Girardeau (1882-1970), ingénieur français
-Marie Atmadjian (1914-1999), poétesse franco-arménienne
-Autres
-Il y avait en 1900, une sépulture française et une sépulture allemande, probablement datant de la guerre de 1870.
-Une plaque commémorative a été installée à la mémoire de cinq jeunes gens assassinés en 1944 par des Waffen-SS, dans le square Richard-Gardebled[4].</t>
+          <t>Personnalités enterrées dans le cimetière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Émile Girardeau (1882-1970), ingénieur français
+Marie Atmadjian (1914-1999), poétesse franco-arménienne</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ancien_cimetière_de_Rosny-sous-Bois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ancien_cimeti%C3%A8re_de_Rosny-sous-Bois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnalités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il y avait en 1900, une sépulture française et une sépulture allemande, probablement datant de la guerre de 1870.
+Une plaque commémorative a été installée à la mémoire de cinq jeunes gens assassinés en 1944 par des Waffen-SS, dans le square Richard-Gardebled.</t>
         </is>
       </c>
     </row>
